--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="15600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="Issue" sheetId="3" r:id="rId2"/>
+    <sheet name="IssueType" sheetId="4" r:id="rId3"/>
+    <sheet name="Action" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -91,13 +94,106 @@
   </si>
   <si>
     <t>Delete a user specified by its id</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>/issues</t>
+  </si>
+  <si>
+    <t>/issues/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issues</t>
+  </si>
+  <si>
+    <t>Create a new issue</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>List of issues raised by a particular user (ID)</t>
+  </si>
+  <si>
+    <t>issueTypeId</t>
+  </si>
+  <si>
+    <t>List of issues of a certain type (ID).</t>
+  </si>
+  <si>
+    <t>IssueType</t>
+  </si>
+  <si>
+    <t>/issueTypes</t>
+  </si>
+  <si>
+    <t>/issueTypes/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issueTypes</t>
+  </si>
+  <si>
+    <t>Create a new issueType</t>
+  </si>
+  <si>
+    <t>Retrieve a issueType by its id</t>
+  </si>
+  <si>
+    <t>Update a issueType specified by its id</t>
+  </si>
+  <si>
+    <t>Delete a issueType specified by its id</t>
+  </si>
+  <si>
+    <t>/actions</t>
+  </si>
+  <si>
+    <t>/issues/{id}/actions</t>
+  </si>
+  <si>
+    <t>Create an action for an issue</t>
+  </si>
+  <si>
+    <t>Retrieve a list of actions specified by an issue</t>
+  </si>
+  <si>
+    <t>Retrieve a list of actions</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>List of issues from a date.</t>
+  </si>
+  <si>
+    <t>List of issues until a date.</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>List of resolved issues (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Delete an issue specified by its id</t>
+  </si>
+  <si>
+    <t>Update an issue specified by its id</t>
+  </si>
+  <si>
+    <t>Retrieve an issue specified by its id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,13 +242,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -251,14 +373,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,47 +399,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,8 +809,8 @@
   </sheetPr>
   <dimension ref="A2:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
@@ -657,143 +824,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1048576" spans="5:5">
@@ -814,6 +986,563 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="C19" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:F1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5">
+      <c r="E1048576" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:F1048570"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1048570" spans="5:5">
+      <c r="E1048570" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
